--- a/Индекс устройств SKC/index.xlsx
+++ b/Индекс устройств SKC/index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Хэш прошивки</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>4 аналоговых канала(токовые), 1 частотный(с усредненным дополнительным каналом),</t>
+  </si>
+  <si>
+    <t>988347dc19d4b277732c1a76f10971efd5706af5</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -400,6 +403,9 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2">
         <v>41884</v>
       </c>

--- a/Индекс устройств SKC/index.xlsx
+++ b/Индекс устройств SKC/index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Хэш прошивки</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>988347dc19d4b277732c1a76f10971efd5706af5</t>
+  </si>
+  <si>
+    <t>00011</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -414,8 +417,18 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>

--- a/Индекс устройств SKC/index.xlsx
+++ b/Индекс устройств SKC/index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Хэш прошивки</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>00011</t>
+  </si>
+  <si>
+    <t>e70380698ef1c2e9115bb0983afa72796f750724</t>
+  </si>
+  <si>
+    <t>00012</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -431,8 +437,18 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42712</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
